--- a/test_scripts/TS004_testscript.xlsx
+++ b/test_scripts/TS004_testscript.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\allprojects\web_automation_htmltopdf\test_scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05A3F3D-373E-4005-88E8-2854B08106EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFF3D0E-B494-4CE4-9F75-3E92F7741210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3624" yWindow="3276" windowWidth="17280" windowHeight="8964" xr2:uid="{4369D99C-3FCA-451D-9ADF-0150CDA12363}"/>
   </bookViews>
@@ -36,9 +36,6 @@
     <t>tc_id</t>
   </si>
   <si>
-    <t>TC001</t>
-  </si>
-  <si>
     <t>tc_desc</t>
   </si>
   <si>
@@ -80,6 +77,9 @@
   </si>
   <si>
     <t>Edge</t>
+  </si>
+  <si>
+    <t>TS004</t>
   </si>
 </sst>
 </file>
@@ -459,7 +459,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -472,16 +472,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -489,26 +489,26 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -517,10 +517,10 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -528,7 +528,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.3">
